--- a/开支收入/2016年寒假学生报名册.xlsx
+++ b/开支收入/2016年寒假学生报名册.xlsx
@@ -1232,7 +1232,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
